--- a/Results/Results_male.xlsx
+++ b/Results/Results_male.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ouykh\Ironhack-DAFT-Project2_DataBase-_Group4\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20A94A2-F009-4ECF-A449-BAA0B9E08128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F411F6B8-E175-4442-B9ED-E896DBDA646F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results_male" sheetId="1" r:id="rId1"/>
@@ -1750,7 +1750,7 @@
               </c:layout>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                     <a:noAutofit/>
                   </a:bodyPr>
                   <a:lstStyle/>
@@ -1783,7 +1783,7 @@
                 <a:effectLst/>
               </c:spPr>
               <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                   <a:noAutofit/>
                 </a:bodyPr>
                 <a:lstStyle/>
@@ -1933,7 +1933,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -3451,7 +3451,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H12"/>
+      <selection sqref="A1:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
